--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="0" windowWidth="25600" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="1455" yWindow="0" windowWidth="25605" windowHeight="15885" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t xml:space="preserve">Arbeitspakete </t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Patrick Pölzlbauer</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -394,20 +400,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -735,27 +746,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" customWidth="1"/>
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -767,7 +778,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -787,15 +798,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -803,7 +818,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -811,7 +826,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -819,7 +834,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -827,7 +842,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -835,7 +850,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -843,8 +858,8 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1"/>
-    <row r="12" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
@@ -856,7 +871,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:7" ht="16" thickBot="1">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
@@ -877,7 +892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -886,7 +901,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -895,7 +910,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -904,7 +919,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -913,7 +928,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -922,7 +937,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -931,7 +946,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="16" thickBot="1">
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -940,14 +955,14 @@
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="16" thickBot="1">
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>12</v>
       </c>
@@ -960,7 +975,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:7" ht="16" thickBot="1">
+    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
@@ -981,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -990,7 +1005,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -999,7 +1014,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -1008,7 +1023,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
@@ -1017,7 +1032,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -1026,7 +1041,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -1035,7 +1050,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="16" thickBot="1">
+    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -1044,15 +1059,15 @@
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" ht="16" thickBot="1"/>
-    <row r="32" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
     </row>
-    <row r="33" spans="1:3" ht="16" thickBot="1">
+    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
@@ -1063,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>4</v>
       </c>
@@ -1076,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1089,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1102,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1115,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>11</v>
       </c>
@@ -1141,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16" thickBot="1">
+    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>3</v>
       </c>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="0" windowWidth="25605" windowHeight="15885" tabRatio="500"/>
+    <workbookView xWindow="12460" yWindow="0" windowWidth="21840" windowHeight="15880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t xml:space="preserve">Arbeitspakete </t>
   </si>
@@ -64,6 +64,39 @@
   </si>
   <si>
     <t>3h</t>
+  </si>
+  <si>
+    <t>UML Klassendiagramm</t>
+  </si>
+  <si>
+    <t>Analytics Server Designüberlegung</t>
+  </si>
+  <si>
+    <t>Conections Designüberlegung</t>
+  </si>
+  <si>
+    <t>Analytics Server Implementierung</t>
+  </si>
+  <si>
+    <t>Conections Implementierung</t>
+  </si>
+  <si>
+    <t>Analytics Server Fertig</t>
+  </si>
+  <si>
+    <t>Conections Fertig</t>
+  </si>
+  <si>
+    <t>Protokoll</t>
+  </si>
+  <si>
+    <t>Teamkoordination</t>
+  </si>
+  <si>
+    <t>Anpassungen und Abstimmungen</t>
+  </si>
+  <si>
+    <t>User Acceptance Testing</t>
   </si>
 </sst>
 </file>
@@ -118,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -346,8 +379,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -359,8 +431,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -398,19 +472,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="13">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -744,29 +828,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -778,7 +862,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -798,10 +882,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="29"/>
       <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
@@ -810,374 +898,464 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.5</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.5</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="E8" s="15"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" thickBot="1">
+      <c r="A11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5">
+        <f>SUM(B3:B12)</f>
+        <v>16.5</v>
+      </c>
+      <c r="C14" s="5">
+        <f>SUM(C3:C12)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" ht="16" thickBot="1"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="E12" s="17" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="E16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G17" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="13"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="16"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" thickBot="1">
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="17" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="16"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" thickBot="1"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="8">
-        <f>B9</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="8">
-        <f>C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B38" s="8">
+        <f>B14</f>
+        <v>16.5</v>
+      </c>
+      <c r="C38" s="8">
+        <f>C14</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="2">
-        <f>F9</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="2">
-        <f>G9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B39" s="2">
+        <f>F11</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <f>G11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="2">
-        <f>B20</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <f>C20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B40" s="2">
+        <f>B24</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <f>C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="2">
-        <f>F20</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
-        <f>G20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B41" s="2">
+        <f>F24</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <f>G24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="2">
-        <f>B30</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="2">
-        <f>C30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="B42" s="2">
+        <f>B34</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <f>C34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="2">
-        <f>F30</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="2">
-        <f>G30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="B43" s="2">
+        <f>F34</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <f>G34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="5">
-        <f>SUM(B34:B39)</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="5">
-        <f>SUM(C34:C39)</f>
-        <v>0</v>
+      <c r="B44" s="5">
+        <f>SUM(B38:B43)</f>
+        <v>16.5</v>
+      </c>
+      <c r="C44" s="5">
+        <f>SUM(C38:C43)</f>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="0" windowWidth="21840" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -454,6 +454,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,14 +480,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -831,7 +831,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -851,16 +851,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="A2" s="10" t="s">
@@ -883,13 +883,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="22">
         <v>1.5</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="23"/>
       <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
@@ -906,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
@@ -968,9 +968,9 @@
         <v>3</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
@@ -980,12 +980,12 @@
         <v>2</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="16" thickBot="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="2">
@@ -1004,9 +1004,9 @@
         <v>1.5</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
@@ -1016,9 +1016,9 @@
         <v>1</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="4" t="s">
@@ -1030,26 +1030,26 @@
       </c>
       <c r="C14" s="5">
         <f>SUM(C3:C12)</f>
-        <v>1.5</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" ht="16" thickBot="1"/>
     <row r="16" spans="1:7">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="E16" s="17" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="E16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1">
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" ht="16" thickBot="1">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1">
+    <row r="24" spans="1:7" ht="16" thickBot="1">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -1133,7 +1133,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1141,19 +1141,19 @@
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1">
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" ht="16" thickBot="1">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" thickBot="1">
+    <row r="34" spans="1:7" ht="16" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -1237,15 +1237,15 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1"/>
+    <row r="35" spans="1:7" ht="16" thickBot="1"/>
     <row r="36" spans="1:7">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" ht="16" thickBot="1">
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C38" s="8">
         <f>C14</f>
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" thickBot="1">
+    <row r="44" spans="1:7" ht="16" thickBot="1">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t xml:space="preserve">Arbeitspakete </t>
   </si>
@@ -63,9 +63,6 @@
     <t>UML</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>UML Klassendiagramm</t>
   </si>
   <si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>User Acceptance Testing</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>Billing Server Implementierung</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -480,21 +483,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -830,27 +834,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" customWidth="1"/>
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
@@ -862,7 +866,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -882,9 +886,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="22">
         <v>1.5</v>
@@ -893,14 +897,16 @@
       <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="8">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -908,25 +914,33 @@
       <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1.5</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -936,9 +950,9 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -948,9 +962,9 @@
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>1.5</v>
@@ -960,9 +974,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
@@ -972,9 +986,9 @@
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -984,21 +998,24 @@
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5">
+        <f>SUM(F3:F10)</f>
+        <v>9.5</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>1.5</v>
@@ -1008,9 +1025,9 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1020,7 +1037,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1036,8 +1053,8 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1"/>
-    <row r="16" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1066,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" spans="1:7" ht="16" thickBot="1">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -1079,7 +1096,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -1088,7 +1105,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -1097,7 +1114,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -1106,7 +1123,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -1115,7 +1132,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1124,7 +1141,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="16" thickBot="1">
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -1133,14 +1150,14 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="16" thickBot="1">
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>12</v>
       </c>
@@ -1153,7 +1170,7 @@
       <c r="F26" s="26"/>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:7" ht="16" thickBot="1">
+    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -1183,7 +1200,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -1192,7 +1209,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1201,7 +1218,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -1210,7 +1227,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -1219,7 +1236,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -1228,7 +1245,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="16" thickBot="1">
+    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -1237,15 +1254,15 @@
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" ht="16" thickBot="1"/>
-    <row r="36" spans="1:7">
+    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="27"/>
     </row>
-    <row r="37" spans="1:7" ht="16" thickBot="1">
+    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
@@ -1256,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
@@ -1269,20 +1286,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="2">
         <f>F11</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="C39" s="2">
         <f>G11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1295,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1308,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -1321,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>11</v>
       </c>
@@ -1334,13 +1351,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16" thickBot="1">
+    <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="5">
         <f>SUM(B38:B43)</f>
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t xml:space="preserve">Arbeitspakete </t>
   </si>
@@ -60,9 +60,6 @@
     <t>Patrick Pölzlbauer</t>
   </si>
   <si>
-    <t>UML</t>
-  </si>
-  <si>
     <t>UML Klassendiagramm</t>
   </si>
   <si>
@@ -96,10 +93,22 @@
     <t>User Acceptance Testing</t>
   </si>
   <si>
-    <t>6h</t>
-  </si>
-  <si>
     <t>Billing Server Implementierung</t>
+  </si>
+  <si>
+    <t>Billing Server Designüberlegung</t>
+  </si>
+  <si>
+    <t>Zeitaufzeichnung und Zeitschätzung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ant </t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
 </sst>
 </file>
@@ -154,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -400,19 +409,6 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -437,7 +433,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -459,12 +455,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,7 +487,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -834,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -855,16 +859,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -887,26 +891,26 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="22">
+      <c r="A3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="20">
         <v>1.5</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="21"/>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="8">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>25</v>
+      <c r="G3" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -915,23 +919,23 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="31">
+        <v>20</v>
+      </c>
+      <c r="F4" s="26">
         <v>1.5</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
@@ -940,102 +944,131 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>1.5</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="2"/>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="17"/>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="33">
+        <v>2.5</v>
+      </c>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>21</v>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5">
-        <f>SUM(F3:F10)</f>
-        <v>9.5</v>
-      </c>
-      <c r="G11" s="6"/>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>1.5</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1049,22 +1082,31 @@
         <f>SUM(C3:C12)</f>
         <v>4</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="4"/>
+      <c r="F15" s="5">
+        <f>SUM(F3:F14)</f>
+        <v>19</v>
+      </c>
+      <c r="G15" s="6">
+        <f>SUM(G3:G14)</f>
+        <v>6</v>
+      </c>
+    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="E16" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -1077,42 +1119,41 @@
         <v>2</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -1137,7 +1178,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
@@ -1146,29 +1187,27 @@
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
@@ -1181,42 +1220,44 @@
         <v>2</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
+      <c r="E29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="3"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1241,7 +1282,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
     </row>
@@ -1250,17 +1291,24 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="16"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
@@ -1291,11 +1339,11 @@
         <v>7</v>
       </c>
       <c r="B39" s="2">
-        <f>F11</f>
-        <v>9.5</v>
+        <f>F13</f>
+        <v>1</v>
       </c>
       <c r="C39" s="2">
-        <f>G11</f>
+        <f>G13</f>
         <v>0</v>
       </c>
     </row>
@@ -1317,11 +1365,11 @@
         <v>9</v>
       </c>
       <c r="B41" s="2">
-        <f>F24</f>
+        <f>F26</f>
         <v>0</v>
       </c>
       <c r="C41" s="2">
-        <f>G24</f>
+        <f>G26</f>
         <v>0</v>
       </c>
     </row>
@@ -1343,11 +1391,11 @@
         <v>11</v>
       </c>
       <c r="B43" s="2">
-        <f>F34</f>
+        <f>F36</f>
         <v>0</v>
       </c>
       <c r="C43" s="2">
-        <f>G34</f>
+        <f>G36</f>
         <v>0</v>
       </c>
     </row>
@@ -1357,7 +1405,7 @@
       </c>
       <c r="B44" s="5">
         <f>SUM(B38:B43)</f>
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
@@ -1365,14 +1413,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="E16:G16"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E28:G28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="25605" windowHeight="15945" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t xml:space="preserve">Arbeitspakete </t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>0.2</t>
+  </si>
+  <si>
+    <t>Recherche Testfälle Designüberlegung</t>
+  </si>
+  <si>
+    <t>TDD (ersten Testfälle)</t>
+  </si>
+  <si>
+    <t>UML Use Case Diagramm</t>
+  </si>
+  <si>
+    <t>Management Client Designüberlegung</t>
+  </si>
+  <si>
+    <t>Model Designüberlegung</t>
   </si>
 </sst>
 </file>
@@ -163,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -414,6 +429,41 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -433,7 +483,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -469,6 +519,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,22 +538,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -838,11 +891,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -859,16 +912,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="E1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1001,7 +1054,7 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="27">
         <v>2.5</v>
       </c>
       <c r="G9" s="18"/>
@@ -1102,11 +1155,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -1199,11 +1252,11 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="14"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
@@ -1229,11 +1282,11 @@
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -1255,8 +1308,12 @@
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
+      <c r="E30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="34">
+        <v>2</v>
+      </c>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1264,8 +1321,12 @@
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="35">
+        <v>1</v>
+      </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1273,8 +1334,12 @@
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="35">
+        <v>1</v>
+      </c>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,8 +1347,12 @@
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="35">
+        <v>1</v>
+      </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1291,8 +1360,12 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="35">
+        <v>1</v>
+      </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1301,11 +1374,11 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -520,6 +520,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,24 +541,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -891,11 +891,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -912,16 +912,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1155,11 +1155,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
@@ -1252,11 +1252,11 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="14"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
@@ -1282,11 +1282,11 @@
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -1311,7 +1311,7 @@
       <c r="E30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="28">
         <v>2</v>
       </c>
       <c r="G30" s="9"/>
@@ -1321,10 +1321,10 @@
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="29">
         <v>1</v>
       </c>
       <c r="G31" s="3"/>
@@ -1337,7 +1337,7 @@
       <c r="E32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="29">
         <v>1</v>
       </c>
       <c r="G32" s="3"/>
@@ -1350,7 +1350,7 @@
       <c r="E33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="29">
         <v>1</v>
       </c>
       <c r="G33" s="3"/>
@@ -1363,7 +1363,7 @@
       <c r="E34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="29">
         <v>1</v>
       </c>
       <c r="G34" s="3"/>
@@ -1374,11 +1374,11 @@
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
       <c r="E36" s="4"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
@@ -1412,12 +1412,12 @@
         <v>7</v>
       </c>
       <c r="B39" s="2">
-        <f>F13</f>
-        <v>1</v>
+        <f>F15</f>
+        <v>19</v>
       </c>
       <c r="C39" s="2">
-        <f>G13</f>
-        <v>0</v>
+        <f>G15</f>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B44" s="5">
         <f>SUM(B38:B43)</f>
-        <v>17.5</v>
+        <v>35.5</v>
       </c>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -543,19 +543,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -892,10 +892,10 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -1314,7 +1314,9 @@
       <c r="F30" s="28">
         <v>2</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -1327,7 +1329,9 @@
       <c r="F31" s="29">
         <v>1</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -1340,7 +1344,9 @@
       <c r="F32" s="29">
         <v>1</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
@@ -1353,7 +1359,9 @@
       <c r="F33" s="29">
         <v>1</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
@@ -1366,7 +1374,9 @@
       <c r="F34" s="29">
         <v>1</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="16"/>
@@ -1464,7 +1474,6 @@
         <v>11</v>
       </c>
       <c r="B43" s="2">
-        <f>F36</f>
         <v>0</v>
       </c>
       <c r="C43" s="2">

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="25605" windowHeight="15945" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t xml:space="preserve">Arbeitspakete </t>
   </si>
@@ -124,13 +124,22 @@
   </si>
   <si>
     <t>Model Designüberlegung</t>
+  </si>
+  <si>
+    <t>UML Aktivitätsdiagramm</t>
+  </si>
+  <si>
+    <t>Management Client Implementierung</t>
+  </si>
+  <si>
+    <t>Management Client Fertig</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -888,14 +897,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -911,7 +920,7 @@
     <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
@@ -923,7 +932,7 @@
       <c r="F1" s="35"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -943,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
@@ -961,7 +970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -979,7 +988,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -995,7 +1004,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1011,7 +1020,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1027,7 +1036,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1043,7 +1052,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1059,7 +1068,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1084,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="22" t="s">
         <v>20</v>
       </c>
@@ -1091,7 +1100,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1107,7 +1116,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1123,7 +1132,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1143,7 +1152,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1">
       <c r="E15" s="4"/>
       <c r="F15" s="5">
         <f>SUM(F3:F14)</f>
@@ -1154,14 +1163,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
@@ -1173,9 +1182,13 @@
       </c>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3</v>
+      </c>
       <c r="C18" s="9"/>
       <c r="D18" s="14"/>
       <c r="E18" s="23" t="s">
@@ -1184,9 +1197,13 @@
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.5</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="14"/>
       <c r="E19" s="10" t="s">
@@ -1199,59 +1216,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.1</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="14"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="14"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="14"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="2"/>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="14"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
+    <row r="24" spans="1:7" ht="16.5" thickBot="1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2.5</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="14"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.5" thickBot="1">
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5" thickBot="1">
       <c r="A26" s="31" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1299,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5" thickBot="1">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1314,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -1288,7 +1325,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5" thickBot="1">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -1303,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1318,7 +1355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -1333,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -1348,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="16"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -1363,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="16.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -1378,12 +1415,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="16.5" thickBot="1">
       <c r="E35" s="16"/>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="16.5" thickBot="1">
       <c r="A36" s="31" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1430,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="16.5" thickBot="1">
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
@@ -1417,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -1430,20 +1467,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="2">
         <f>B24</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C40" s="2">
         <f>C24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1456,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -1469,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="16" t="s">
         <v>11</v>
       </c>
@@ -1481,13 +1518,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="16.5" thickBot="1">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="5">
         <f>SUM(B38:B43)</f>
-        <v>35.5</v>
+        <v>38</v>
       </c>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1187,9 +1187,11 @@
         <v>35</v>
       </c>
       <c r="B18" s="8">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.5</v>
+      </c>
       <c r="D18" s="14"/>
       <c r="E18" s="23" t="s">
         <v>9</v>
@@ -1218,10 +1220,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="14"/>
@@ -1231,10 +1233,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="14"/>
@@ -1244,7 +1246,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -1257,10 +1259,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="14"/>
@@ -1269,13 +1271,17 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B24" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="C24" s="6"/>
+        <f>SUM(B18:B23)</f>
+        <v>18</v>
+      </c>
+      <c r="C24" s="6">
+        <f>SUM(C18:C23)</f>
+        <v>1.5</v>
+      </c>
       <c r="D24" s="14"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
@@ -1472,12 +1478,12 @@
         <v>8</v>
       </c>
       <c r="B40" s="2">
-        <f>B24</f>
+        <f>B23</f>
         <v>2.5</v>
       </c>
       <c r="C40" s="2">
         <f>C24</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1528,7 +1534,7 @@
       </c>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
-        <v>10</v>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1547,7 @@
     <mergeCell ref="E28:G28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20730" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -138,8 +138,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -897,14 +897,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -920,7 +920,7 @@
     <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="F1" s="35"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -952,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
@@ -970,7 +970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>20</v>
       </c>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="4"/>
       <c r="F15" s="5">
         <f>SUM(F3:F14)</f>
@@ -1163,14 +1163,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1270,7 +1270,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1">
+    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -1287,14 +1287,14 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" thickBot="1">
+    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1">
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>12</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1">
+    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -1331,7 +1331,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1">
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -1346,7 +1346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -1361,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" thickBot="1">
+    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -1418,15 +1418,15 @@
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="16"/>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" thickBot="1">
+    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>5</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1">
+    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>11</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" thickBot="1">
+    <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -492,7 +492,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -550,6 +550,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -900,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1372,8 +1373,8 @@
       <c r="F31" s="29">
         <v>1</v>
       </c>
-      <c r="G31" s="3">
-        <v>1</v>
+      <c r="G31" s="37">
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1517,11 +1518,10 @@
         <v>11</v>
       </c>
       <c r="B43" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C43" s="2">
-        <f>G36</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B44" s="5">
         <f>SUM(B38:B43)</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
-        <v>11.5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20730" windowHeight="11700" tabRatio="500"/>
+    <workbookView xWindow="3040" yWindow="2240" windowWidth="20920" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t xml:space="preserve">Arbeitspakete </t>
   </si>
@@ -99,16 +99,10 @@
     <t>Billing Server Designüberlegung</t>
   </si>
   <si>
-    <t>Zeitaufzeichnung und Zeitschätzung</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ant </t>
   </si>
   <si>
     <t>Abgabe</t>
-  </si>
-  <si>
-    <t>0.2</t>
   </si>
   <si>
     <t>Recherche Testfälle Designüberlegung</t>
@@ -467,10 +461,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -492,7 +486,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -518,20 +512,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,21 +536,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -901,39 +886,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="E1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -953,7 +938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
@@ -961,7 +946,7 @@
         <v>1.5</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="E3" t="s">
+      <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="8">
@@ -971,7 +956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,12 +969,12 @@
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="23">
         <v>1.5</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +990,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1013,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2">
@@ -1021,7 +1006,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1029,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="2">
@@ -1037,7 +1022,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1045,15 +1030,15 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1061,15 +1046,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="27">
-        <v>2.5</v>
-      </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1077,15 +1062,15 @@
         <v>2</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="E10" t="s">
-        <v>19</v>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="22" t="s">
         <v>20</v>
       </c>
@@ -1093,15 +1078,15 @@
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="E11" t="s">
-        <v>22</v>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1109,15 +1094,15 @@
         <v>1.5</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1125,15 +1110,15 @@
         <v>1</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1145,33 +1130,32 @@
         <f>SUM(C3:C12)</f>
         <v>4</v>
       </c>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="4"/>
-      <c r="F15" s="5">
-        <f>SUM(F3:F14)</f>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <f>SUM(F3:F13)</f>
         <v>19</v>
       </c>
-      <c r="G15" s="6">
-        <f>SUM(G3:G14)</f>
+      <c r="G14" s="6">
+        <f>SUM(G3:G13)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+    <row r="15" spans="1:7" ht="16" thickBot="1"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="E16" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" ht="16" thickBot="1">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
@@ -1182,10 +1166,19 @@
         <v>2</v>
       </c>
       <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
+      <c r="E17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -1194,47 +1187,39 @@
         <v>1.5</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>33</v>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B19" s="2">
         <v>2.5</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -1245,8 +1230,8 @@
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="2">
@@ -1258,8 +1243,8 @@
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="2">
@@ -1267,11 +1252,11 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -1284,29 +1269,31 @@
         <v>1.5</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" spans="1:7" ht="16" thickBot="1">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -1317,127 +1304,118 @@
         <v>2</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="25">
+        <v>2</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="26">
+        <v>1</v>
+      </c>
+      <c r="G29" s="28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="28">
-        <v>2</v>
-      </c>
-      <c r="G30" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="26">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="29">
-        <v>1</v>
-      </c>
-      <c r="G31" s="37">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="26">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="26">
         <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="16"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="29">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="16"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="16" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="29">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="16"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="16" thickBot="1"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:7" ht="16" thickBot="1">
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
@@ -1448,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="7" t="s">
         <v>4</v>
       </c>
@@ -1461,20 +1439,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="2">
-        <f>F15</f>
+        <f>F14</f>
         <v>19</v>
       </c>
       <c r="C39" s="2">
-        <f>G15</f>
+        <f>G14</f>
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1487,20 +1465,20 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="2">
-        <f>F26</f>
+        <f>F24</f>
         <v>0</v>
       </c>
       <c r="C41" s="2">
-        <f>G26</f>
+        <f>G24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -1513,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="16" t="s">
         <v>11</v>
       </c>
@@ -1524,7 +1502,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="16" thickBot="1">
       <c r="A44" s="4" t="s">
         <v>3</v>
       </c>
@@ -1538,16 +1516,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E26:G26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2240" windowWidth="20920" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="11520" yWindow="1560" windowWidth="20920" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t xml:space="preserve">Arbeitspakete </t>
   </si>
@@ -102,9 +102,6 @@
     <t xml:space="preserve">Ant </t>
   </si>
   <si>
-    <t>Abgabe</t>
-  </si>
-  <si>
     <t>Recherche Testfälle Designüberlegung</t>
   </si>
   <si>
@@ -127,6 +124,15 @@
   </si>
   <si>
     <t>Management Client Fertig</t>
+  </si>
+  <si>
+    <t>Conections Implementieurng</t>
+  </si>
+  <si>
+    <t>Billing Server Fertig</t>
+  </si>
+  <si>
+    <t>Connections Fertig</t>
   </si>
 </sst>
 </file>
@@ -471,8 +477,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -537,19 +581,57 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="51">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -886,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -983,10 +1065,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -999,7 +1081,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1015,10 +1097,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -1031,7 +1113,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F8" s="24">
         <v>2.5</v>
@@ -1047,7 +1129,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1063,7 +1145,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -1079,7 +1161,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1095,7 +1177,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="17">
         <v>1</v>
@@ -1111,7 +1193,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -1178,7 +1260,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -1193,7 +1275,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2">
         <v>2.5</v>
@@ -1206,7 +1288,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -1219,7 +1301,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -1320,7 +1402,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="14"/>
       <c r="E28" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="25">
         <v>2</v>
@@ -1335,7 +1417,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="14"/>
       <c r="E29" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="26">
         <v>1</v>
@@ -1350,7 +1432,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="14"/>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="26">
         <v>1</v>
@@ -1365,7 +1447,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="14"/>
       <c r="E31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="26">
         <v>1</v>
@@ -1380,7 +1462,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="14"/>
       <c r="E32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" s="26">
         <v>1</v>
@@ -1403,9 +1485,17 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
+      <c r="E34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5">
+        <f>SUM(F28:F33)</f>
+        <v>6</v>
+      </c>
+      <c r="G34" s="5">
+        <f>SUM(G28:G33)</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="16" thickBot="1"/>
     <row r="36" spans="1:7">
@@ -1457,8 +1547,8 @@
         <v>8</v>
       </c>
       <c r="B40" s="2">
-        <f>B23</f>
-        <v>2.5</v>
+        <f>B24</f>
+        <v>18</v>
       </c>
       <c r="C40" s="2">
         <f>C24</f>
@@ -1496,9 +1586,11 @@
         <v>11</v>
       </c>
       <c r="B43" s="2">
+        <f>F34</f>
         <v>6</v>
       </c>
       <c r="C43" s="2">
+        <f>G34</f>
         <v>4.5</v>
       </c>
     </row>
@@ -1508,7 +1600,7 @@
       </c>
       <c r="B44" s="5">
         <f>SUM(B38:B43)</f>
-        <v>44</v>
+        <v>59.5</v>
       </c>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>

--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="949" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="949"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>Tobias Schuschnig</t>
   </si>
@@ -23,7 +22,7 @@
     <t>Tobias Lins</t>
   </si>
   <si>
-    <t>Arbeitspakete </t>
+    <t>Arbeitspakete</t>
   </si>
   <si>
     <t>Geschätzte Zeit</t>
@@ -77,7 +76,7 @@
     <t>Anpassungen und Abstimmungen</t>
   </si>
   <si>
-    <t>Ant </t>
+    <t>Ant</t>
   </si>
   <si>
     <t>User Acceptance Testing</t>
@@ -141,52 +140,51 @@
   </si>
   <si>
     <t>Patrick Pölzelbauer</t>
+  </si>
+  <si>
+    <t>TDD fertig</t>
+  </si>
+  <si>
+    <t>Model fertig</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Beschreibung Testing</t>
+  </si>
+  <si>
+    <t>Anpassungen</t>
+  </si>
+  <si>
+    <t>User Acceptance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.00" numFmtId="165"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,202 +196,450 @@
     </fill>
   </fills>
   <borders count="8">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thick"/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+  <a:themeElements>
+    <a:clrScheme name="Larissa">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Larissa">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Larissa">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E39" activeCellId="0" pane="topLeft" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.4481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.162962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.15925925925926"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.5037037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.162962962963"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.162962962963"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.5037037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.162962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11"/>
+    <col min="1" max="1" width="32.5"/>
+    <col min="2" max="2" width="14"/>
+    <col min="3" max="3" width="15.125"/>
+    <col min="4" max="4" width="5.125"/>
+    <col min="5" max="5" width="28.5"/>
+    <col min="6" max="6" width="14"/>
+    <col min="7" max="7" width="15.125"/>
+    <col min="8" max="8" width="14"/>
+    <col min="9" max="9" width="15.125"/>
+    <col min="10" max="10" width="28.5"/>
+    <col min="11" max="11" width="14"/>
+    <col min="12" max="12" width="15.125"/>
+    <col min="13" max="1025" width="11"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +651,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -425,211 +671,211 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>1.5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="5">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="5">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="6">
         <v>1.5</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4"/>
       <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4"/>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="4"/>
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>5</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>1.5</v>
       </c>
       <c r="C8" s="4"/>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>2.5</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
       <c r="C9" s="4"/>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="4"/>
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11" s="4"/>
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="4">
         <v>1.5</v>
       </c>
       <c r="C12" s="4"/>
       <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="8">
         <v>1</v>
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4">
         <v>1</v>
       </c>
       <c r="C13" s="4"/>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="n">
-        <f aca="false">SUM(B3:B12)</f>
+      <c r="B14" s="4">
+        <f>SUM(B3:B12)</f>
         <v>16.5</v>
       </c>
-      <c r="C14" s="4" t="n">
-        <f aca="false">SUM(C3:C12)</f>
+      <c r="C14" s="4">
+        <f>SUM(C3:C12)</f>
         <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="4" t="n">
-        <f aca="false">SUM(F3:F13)</f>
+      <c r="F14" s="4">
+        <f>SUM(F3:F13)</f>
         <v>19</v>
       </c>
-      <c r="G14" s="4" t="n">
-        <f aca="false">SUM(G3:G13)</f>
+      <c r="G14" s="4">
+        <f>SUM(G3:G13)</f>
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -641,7 +887,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -662,14 +908,14 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="n">
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
         <v>1.5</v>
       </c>
       <c r="D18" s="9"/>
@@ -677,11 +923,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="4">
         <v>2.5</v>
       </c>
       <c r="C19" s="4"/>
@@ -690,11 +936,11 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="4">
         <v>5</v>
       </c>
       <c r="C20" s="4"/>
@@ -703,11 +949,11 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="4">
         <v>3</v>
       </c>
       <c r="C21" s="4"/>
@@ -716,11 +962,11 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="4">
         <v>3</v>
       </c>
       <c r="C22" s="4"/>
@@ -729,11 +975,11 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="4">
         <v>2.5</v>
       </c>
       <c r="C23" s="4"/>
@@ -742,16 +988,16 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="n">
-        <f aca="false">SUM(B18:B23)</f>
+      <c r="B24" s="4">
+        <f>SUM(B18:B23)</f>
         <v>18</v>
       </c>
-      <c r="C24" s="4" t="n">
-        <f aca="false">SUM(C18:C23)</f>
+      <c r="C24" s="4">
+        <f>SUM(C18:C23)</f>
         <v>1.5</v>
       </c>
       <c r="D24" s="9"/>
@@ -759,14 +1005,14 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="10"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -779,7 +1025,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="27">
+    <row r="27" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -800,72 +1046,72 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="28">
+    <row r="28" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="n">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
         <v>0.1</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="29">
+        <v>35</v>
+      </c>
+      <c r="F28" s="12">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4" t="n">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
         <v>1</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="30">
+      <c r="F29" s="15">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="4">
         <v>0</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="9"/>
       <c r="E30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="31">
+        <v>31</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="4">
         <v>6</v>
       </c>
       <c r="C31" s="4"/>
@@ -873,18 +1119,18 @@
       <c r="E31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4" t="n">
+      <c r="F31" s="15">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="32">
+    <row r="32" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="4">
         <v>2.5</v>
       </c>
       <c r="C32" s="4"/>
@@ -892,58 +1138,73 @@
       <c r="E32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="33">
+      <c r="F32" s="15">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="4">
         <v>2</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5</v>
+      </c>
       <c r="G33" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="34">
+    <row r="34" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="4">
         <v>12.5</v>
       </c>
-      <c r="C34" s="4" t="n">
-        <v>1.1</v>
+      <c r="C34" s="4">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="4" t="n">
-        <f aca="false">SUM(F28:F33)</f>
-        <v>6</v>
-      </c>
-      <c r="G34" s="4" t="n">
-        <f aca="false">SUM(G28:G33)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="35"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
+        <v>27</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="37">
+      <c r="E36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="4">
+        <v>5</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -953,114 +1214,141 @@
       <c r="C37" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
+      <c r="E37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="5" t="n">
-        <f aca="false">B14</f>
+      <c r="B38" s="5">
+        <f>B14</f>
         <v>16.5</v>
       </c>
-      <c r="C38" s="5" t="n">
-        <f aca="false">C14</f>
+      <c r="C38" s="5">
+        <f>C14</f>
         <v>4</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
+      <c r="E38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="4" t="n">
-        <f aca="false">F14</f>
+      <c r="B39" s="4">
+        <f>F14</f>
         <v>19</v>
       </c>
-      <c r="C39" s="4" t="n">
-        <f aca="false">G14</f>
+      <c r="C39" s="4">
+        <f>G14</f>
         <v>6</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
+      <c r="E39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="4" t="n">
-        <f aca="false">B24</f>
+      <c r="B40" s="4">
+        <f>B24</f>
         <v>18</v>
       </c>
-      <c r="C40" s="4" t="n">
-        <f aca="false">C24</f>
+      <c r="C40" s="4">
+        <f>C24</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
+      <c r="E40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="4">
+        <f>SUM(F28:F39)</f>
+        <v>24</v>
+      </c>
+      <c r="G40" s="4">
+        <f>SUM(G28:G33)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="4" t="n">
-        <f aca="false">F24</f>
+      <c r="B41" s="4">
+        <f>F24</f>
         <v>0</v>
       </c>
-      <c r="C41" s="4" t="n">
-        <f aca="false">G24</f>
+      <c r="C41" s="4">
+        <f>G24</f>
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="n">
-        <f aca="false">B34</f>
+      <c r="B42" s="4">
+        <f>B34</f>
         <v>12.5</v>
       </c>
-      <c r="C42" s="4" t="n">
-        <f aca="false">C34</f>
-        <v>1.1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
+      <c r="C42" s="4">
+        <f>C34</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="4" t="n">
-        <f aca="false">F34</f>
+      <c r="B43" s="4">
+        <f>F40</f>
+        <v>24</v>
+      </c>
+      <c r="C43" s="4">
+        <f>G40</f>
         <v>6</v>
       </c>
-      <c r="C43" s="4" t="n">
-        <f aca="false">G34</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="44">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="4" t="n">
-        <f aca="false">SUM(B38:B43)</f>
-        <v>72</v>
-      </c>
-      <c r="C44" s="4" t="n">
-        <f aca="false">SUM(C38:C43)</f>
-        <v>17.1</v>
+      <c r="B44" s="4">
+        <f>SUM(B38:B43)</f>
+        <v>90</v>
+      </c>
+      <c r="C44" s="4">
+        <f>SUM(C38:C43)</f>
+        <v>18.600000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Dokumente/Zeitschaetzung.xlsx
+++ b/Dokumente/Zeitschaetzung.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klune\Documents\5. Klasse\APR\Aufgaben\Aufgabe 8\Repo\RMIAuction\Dokumente\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="949"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="949"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Tobias Schuschnig</t>
   </si>
@@ -158,6 +163,24 @@
   </si>
   <si>
     <t>User Acceptance</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Billing Svr Design</t>
+  </si>
+  <si>
+    <t>Testing Comp. Design</t>
+  </si>
+  <si>
+    <t>Billing Svr. Impl</t>
+  </si>
+  <si>
+    <t>Testing Comp. Impl</t>
+  </si>
+  <si>
+    <t>Anpassen &amp; Abstimmen</t>
   </si>
 </sst>
 </file>
@@ -294,9 +317,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -315,6 +335,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -325,14 +348,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -370,9 +396,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,7 +433,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,7 +468,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,721 +645,745 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5"/>
     <col min="2" max="2" width="14"/>
-    <col min="3" max="3" width="15.125"/>
-    <col min="4" max="4" width="5.125"/>
+    <col min="3" max="3" width="15.09765625"/>
+    <col min="4" max="4" width="5.09765625"/>
     <col min="5" max="5" width="28.5"/>
     <col min="6" max="6" width="14"/>
-    <col min="7" max="7" width="15.125"/>
+    <col min="7" max="7" width="15.09765625"/>
     <col min="8" max="8" width="14"/>
-    <col min="9" max="9" width="15.125"/>
+    <col min="9" max="9" width="15.09765625"/>
     <col min="10" max="10" width="28.5"/>
     <col min="11" max="11" width="14"/>
-    <col min="12" max="12" width="15.125"/>
+    <col min="12" max="12" width="15.09765625"/>
     <col min="13" max="1025" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="E1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1.5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>1.5</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1.5</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>2.5</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1.5</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="3"/>
+      <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <f>SUM(B3:B12)</f>
         <v>16.5</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>SUM(C3:C12)</f>
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f>SUM(F3:F13)</f>
         <v>19</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f>SUM(G3:G13)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="E16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
         <v>1.5</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>2.5</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="3">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>2.5</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="3">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <f>SUM(B18:B23)</f>
         <v>18</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f>SUM(C18:C23)</f>
         <v>1.5</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="1" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
         <v>0.1</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="12">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="F28" s="11">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="14" t="s">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="15">
-        <v>1</v>
-      </c>
-      <c r="G29" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="F29" s="14">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="3" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="15">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>6</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="3" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="15">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="14">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>2.5</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="5" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="15">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="4">
-        <v>2</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="4" t="s">
+      <c r="B33" s="3">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>5</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>12.5</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="14" t="s">
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="E36" s="3" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="E36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>5</v>
       </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <f>B14</f>
         <v>16.5</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <f>C14</f>
         <v>4</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="4">
-        <v>2</v>
-      </c>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="4">
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3">
         <f>F14</f>
         <v>19</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <f>G14</f>
         <v>6</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="4">
-        <v>2</v>
-      </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <f>B24</f>
         <v>18</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <f>C24</f>
         <v>1.5</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <f>SUM(F28:F39)</f>
         <v>24</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <f>SUM(G28:G33)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:7" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <f>F24</f>
         <v>0</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <f>G24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <f>B34</f>
         <v>12.5</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <f>C34</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <f>F40</f>
         <v>24</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <f>G40</f>
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <f>SUM(B38:B43)</f>
         <v>90</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <f>SUM(C38:C43)</f>
         <v>18.600000000000001</v>
       </c>
